--- a/Plantillas - Productos de Trabajo/Plan de Trabajo/WBS - Fifth Floor.xlsx
+++ b/Plantillas - Productos de Trabajo/Plan de Trabajo/WBS - Fifth Floor.xlsx
@@ -633,28 +633,40 @@
   </cellStyleXfs>
   <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -663,22 +675,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,13 +699,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,6 +709,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -720,28 +729,31 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -756,9 +768,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,15 +779,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1249,7 +1249,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C16" sqref="C16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1263,147 +1263,152 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:5" ht="50.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="2:5" ht="33" customHeight="1" thickTop="1">
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="2:5" ht="18.75">
-      <c r="B4" s="2"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="8"/>
     </row>
     <row r="5" spans="2:5" ht="18.75">
-      <c r="B5" s="2"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="2:5" ht="18.75">
-      <c r="B6" s="2"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="2:5" ht="18.75">
-      <c r="B7" s="2"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="2:5" ht="18.75">
-      <c r="B8" s="2"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="2"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="2:5" ht="18.75">
-      <c r="B10" s="2"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="2:5" ht="18.75">
-      <c r="B11" s="2"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75">
-      <c r="B12" s="2"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="2"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="2:5" ht="18.75">
-      <c r="B14" s="2"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="2:5" ht="18.75">
-      <c r="B15" s="2"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:5" ht="18.75">
-      <c r="B16" s="2"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75">
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="2"/>
-      <c r="C17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" thickBot="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="B5:B16"/>
     <mergeCell ref="E3:E18"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C9:D9"/>
@@ -1412,11 +1417,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="B2:E18"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1441,149 +1441,139 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:5" ht="47.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="2:5" ht="33" customHeight="1" thickTop="1">
-      <c r="B3" s="20"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="24"/>
     </row>
     <row r="4" spans="2:5" ht="18.75">
-      <c r="B4" s="21"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="2:5" ht="18.75">
-      <c r="B5" s="21"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
+      <c r="D5" s="13"/>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="2:5" ht="18.75">
-      <c r="B6" s="21"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="25"/>
     </row>
     <row r="7" spans="2:5" ht="18.75">
-      <c r="B7" s="21"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="16"/>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="2:5" ht="18.75">
-      <c r="B8" s="21"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="21"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="25"/>
     </row>
     <row r="10" spans="2:5" ht="18.75">
-      <c r="B10" s="21"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="2:5" ht="18.75">
-      <c r="B11" s="21"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="16"/>
+      <c r="C11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="2:5" ht="18.75">
-      <c r="B12" s="21"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="16"/>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="21"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="16"/>
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="2:5" ht="18.75">
-      <c r="B14" s="21"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="2:5" ht="18.75">
-      <c r="B15" s="21"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="10"/>
       <c r="E15" s="25"/>
     </row>
     <row r="16" spans="2:5" ht="18.75">
-      <c r="B16" s="21"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="16"/>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="25"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75">
+      <c r="B17" s="16"/>
+      <c r="C17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="25"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="21"/>
-      <c r="C17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5" ht="33" customHeight="1" thickBot="1">
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B4"/>
@@ -1595,6 +1585,16 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1606,7 +1606,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1618,149 +1618,139 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:5" ht="46.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="41.25" customHeight="1" thickTop="1">
-      <c r="B3" s="31"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="2:5" ht="18.75">
-      <c r="B4" s="32"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="34"/>
+      <c r="C4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="2:5" ht="18.75">
-      <c r="B5" s="35"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="33"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="2:5" ht="18.75">
-      <c r="B6" s="35"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="33"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="2:5" ht="18.75">
-      <c r="B7" s="35"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="33"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="2:5" ht="18.75">
-      <c r="B8" s="35"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="33"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="35"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="33"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="2:5" ht="18.75">
-      <c r="B10" s="35"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="33"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="2:5" ht="18.75">
-      <c r="B11" s="35"/>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" spans="2:5" ht="18.75">
-      <c r="B12" s="35"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="35"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="27"/>
+      <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="33"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="2:5" ht="18.75">
-      <c r="B14" s="35"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="33"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="2:5" ht="18.75">
-      <c r="B15" s="35"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="33"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="2:5" ht="18.75">
-      <c r="B16" s="35"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="27"/>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="2:5" ht="18.75">
+      <c r="B17" s="27"/>
+      <c r="C17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="35"/>
-      <c r="C17" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="33"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" spans="2:5" ht="41.25" customHeight="1" thickBot="1">
-      <c r="B18" s="37"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="37"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B4"/>
@@ -1772,6 +1762,16 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1783,7 +1783,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C17" sqref="C17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1795,150 +1795,139 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:5" ht="47.25" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:5" ht="35.25" customHeight="1" thickTop="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="2:5" ht="18.75">
-      <c r="B4" s="42"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="38"/>
+      <c r="C4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="45"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="48"/>
     </row>
     <row r="5" spans="2:5" ht="18.75">
-      <c r="B5" s="42"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="45"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="48"/>
     </row>
     <row r="6" spans="2:5" ht="18.75">
-      <c r="B6" s="42"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="45"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="48"/>
     </row>
     <row r="7" spans="2:5" ht="18.75">
-      <c r="B7" s="42"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="38"/>
+      <c r="C7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="45"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="48"/>
     </row>
     <row r="8" spans="2:5" ht="18.75">
-      <c r="B8" s="42"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="45"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="2:5" ht="18.75">
-      <c r="B9" s="42"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="2:5" ht="18.75">
-      <c r="B10" s="42"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="2:5" ht="18.75">
-      <c r="B11" s="42"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="2:5" ht="18.75">
-      <c r="B12" s="42"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="2:5" ht="18.75">
-      <c r="B13" s="42"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="2:5" ht="18.75">
-      <c r="B14" s="42"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="48"/>
     </row>
     <row r="15" spans="2:5" ht="18.75">
-      <c r="B15" s="42"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="48"/>
     </row>
     <row r="16" spans="2:5" ht="18.75">
-      <c r="B16" s="42"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="45"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="48"/>
     </row>
     <row r="17" spans="2:5" ht="18.75">
-      <c r="B17" s="42"/>
-      <c r="C17" s="49" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="45"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="2:5" ht="35.25" customHeight="1" thickBot="1">
-      <c r="B18" s="48"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="46"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" ht="15.75" thickTop="1"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
@@ -1949,6 +1938,17 @@
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
